--- a/data/financial_statements/sofp/TDY.xlsx
+++ b/data/financial_statements/sofp/TDY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,1552 +599,1588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>638100000</v>
+      </c>
+      <c r="C2">
         <v>479300000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>278800000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>284300000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>474700000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>551800000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>695100000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3234200000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>673100000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>454500000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>382800000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>231400000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>199500000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>128500000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>108100000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>106200000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>142500000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>126100000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>101400000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>79900000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>70900000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>82500000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>81700000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>69700000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>98600000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>119000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>91200000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>83200000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>85100000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>71500000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>61300000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>110200000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>141400000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>125800000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>103400000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>73700000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>66000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>88700000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>70100000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>49000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1158400000</v>
+      </c>
+      <c r="C3">
         <v>1079900000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1129300000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1132400000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1083800000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1031300000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>963300000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>639200000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>624100000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>650200000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>653000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>668100000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>660900000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>643700000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>608800000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>564400000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>561800000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>551800000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>539100000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>534800000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>478100000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>466000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>467100000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>444800000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>383700000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>371500000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>367600000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>371800000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>373000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>382000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>395600000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>389100000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>400700000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>374400000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>376300000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>376900000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>378000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>368900000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>346700000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>372100000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>890700000</v>
+      </c>
+      <c r="C4">
         <v>834100000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>821500000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>801300000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>752900000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>833200000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>867200000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>328000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>347300000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>365400000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>392300000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>401100000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>393400000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>404400000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>390400000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>393000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>364300000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>377600000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>380000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>381800000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>400200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>431900000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>435700000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>415600000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>314200000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>325000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>319000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>322000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>309200000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>331500000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>330200000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>323400000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>311800000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>310900000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>318100000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>307600000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>294300000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>304000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>293700000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>304500000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>126000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>108000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>119000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>118000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>119000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>125000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>79000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>78000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>65000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>56000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>63000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>60000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>2817900000</v>
+      </c>
+      <c r="C6">
         <v>2519400000</v>
-      </c>
-      <c r="C6">
-        <v>2337400000</v>
       </c>
       <c r="D6">
         <v>2337400000</v>
       </c>
       <c r="E6">
+        <v>2337400000</v>
+      </c>
+      <c r="F6">
         <v>2429400000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2534900000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2650900000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4280600000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1722600000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1535100000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1483800000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1363800000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1313700000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1238100000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1161000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1117500000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1114400000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1109600000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1077500000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1060200000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1011900000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1041000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1038700000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>985100000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>846200000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>851200000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>830500000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>833400000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>826800000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>866500000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>874000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>901300000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>941700000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>877700000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>858500000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>821200000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>799100000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>842900000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>778300000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>793800000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>769800000</v>
+      </c>
+      <c r="C7">
         <v>742900000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>774200000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>807300000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>827500000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>858100000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>873000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>484700000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>489300000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>475700000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>475400000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>475500000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>487900000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>468200000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>450900000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>450700000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>442600000</v>
-      </c>
-      <c r="R7">
-        <v>446100000</v>
       </c>
       <c r="S7">
         <v>446100000</v>
       </c>
       <c r="T7">
+        <v>446100000</v>
+      </c>
+      <c r="U7">
         <v>441900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>442800000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>452100000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>446900000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>443000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>340800000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>319400000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>321900000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>322800000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>321300000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>321500000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>331300000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>329100000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>336500000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>335100000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>346500000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>351100000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>357700000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>361000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>354400000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>351200000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>7000000</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="I8">
         <v>7000000</v>
       </c>
       <c r="J8">
+        <v>7000000</v>
+      </c>
+      <c r="K8">
         <v>2000000</v>
-      </c>
-      <c r="K8">
-        <v>1000000</v>
       </c>
       <c r="L8">
         <v>1000000</v>
       </c>
       <c r="M8">
+        <v>1000000</v>
+      </c>
+      <c r="N8">
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>10313600000</v>
+      </c>
+      <c r="C9">
         <v>10140000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10513400000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10659800000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10728300000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10604700000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10281700000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2537200000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2559700000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2500100000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2470500000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2465500000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2481300000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2447700000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2267900000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2274100000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2079500000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2113300000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2127500000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2193300000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2175600000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2157100000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2109200000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2073700000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1428100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1421200000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1432600000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1391900000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1383500000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1402900000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1432200000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1398500000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1428200000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1272500000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1301200000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1293900000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1308700000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1304500000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1277200000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1294900000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>274300000</v>
+      </c>
+      <c r="C10">
         <v>138900000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>139900000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>169800000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>176900000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>225100000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>193600000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>122200000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>245300000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>111200000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>105000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>79600000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>225100000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>87400000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>89400000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>90300000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>84600000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>86200000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>84000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>87200000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>88900000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>87500000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>82400000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>75500000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>70800000</v>
-      </c>
-      <c r="Z10">
-        <v>71000000</v>
       </c>
       <c r="AA10">
         <v>71000000</v>
       </c>
       <c r="AB10">
+        <v>71000000</v>
+      </c>
+      <c r="AC10">
         <v>72000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>74500000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>71900000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>68300000</v>
-      </c>
-      <c r="AF10">
-        <v>69500000</v>
       </c>
       <c r="AG10">
         <v>69500000</v>
       </c>
       <c r="AH10">
+        <v>69500000</v>
+      </c>
+      <c r="AI10">
         <v>69000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>67300000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>65500000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>63600000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>112300000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>104200000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>90500000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>11536100000</v>
+      </c>
+      <c r="C11">
         <v>11307000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11710100000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>11913700000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>12000900000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11912600000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>11572000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3337800000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3362200000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3301900000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3254400000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3221200000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3266100000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>3241500000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3039200000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3044200000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2694900000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2803600000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2805400000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2859900000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2834500000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2806500000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2741400000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2687900000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1928200000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1942500000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1950000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1904500000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1890300000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1904500000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1933100000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1891800000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1920500000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1915200000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1947700000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1939000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1952000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1777800000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1735800000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1736600000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>14354000000</v>
+      </c>
+      <c r="C12">
         <v>13826400000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>14047500000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14251100000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>14430300000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14447500000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>14222900000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7618400000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5084800000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4837000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4738200000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4585000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4579800000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4479600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4200200000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4161700000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3809300000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3913200000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3882900000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3920100000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3846400000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>3847500000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>3780100000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3673000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2774400000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2793700000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2780500000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2737900000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2717100000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2771000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2807100000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2793100000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2862200000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2792900000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2806200000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2760200000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2751100000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2620700000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2514100000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2530400000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>505700000</v>
+      </c>
+      <c r="C13">
         <v>499500000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>483000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>496100000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>469500000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>427600000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>399600000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>249900000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>229100000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>216600000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>245000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>263400000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>271100000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>244900000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>221700000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>227300000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>227800000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>205400000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>213000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>198000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>191700000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>186000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>197400000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>182100000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>138800000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>142300000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>134000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>134200000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>136500000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>151700000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>145500000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>152100000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>162500000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>147900000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>149700000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>152300000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>147500000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>160000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>156500000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>160000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>717600000</v>
+      </c>
+      <c r="C14">
         <v>619000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>620000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>612200000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1028900000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>994200000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>653700000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>402500000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>434200000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>429000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>406600000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>395600000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>391500000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>384500000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>353800000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>364600000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>355600000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>368300000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>323800000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>348000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>345300000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>336600000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>320100000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>314000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>261000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>272100000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>252300000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>244700000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>238000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>245400000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>252900000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>244300000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>290300000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>268900000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>258700000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>239300000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>267100000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>242100000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>244500000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>232900000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>300000000</v>
+        <v>300100000</v>
       </c>
       <c r="C15">
         <v>300000000</v>
@@ -2039,25 +2189,25 @@
         <v>300000000</v>
       </c>
       <c r="E15">
+        <v>300000000</v>
+      </c>
+      <c r="F15">
         <v>28000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>29000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>31000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>21000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>97600000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>25600000</v>
-      </c>
-      <c r="K15">
-        <v>100600000</v>
       </c>
       <c r="L15">
         <v>100600000</v>
@@ -2066,384 +2216,390 @@
         <v>100600000</v>
       </c>
       <c r="N15">
+        <v>100600000</v>
+      </c>
+      <c r="O15">
         <v>206100000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>135500000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>131800000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>137400000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>14300000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>12200000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>9200000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3600000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2500000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>102300000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>103500000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>102000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>114600000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>13500000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>12400000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>19100000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>14300000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>87200000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>87500000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>86200000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>85000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>7500000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4800000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3500000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>4500000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1900000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>3700000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>619000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>620000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>603000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1001000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>965000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>623000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>381000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>410000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>409000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>387000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>376000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>372000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1523400000</v>
+      </c>
+      <c r="C17">
         <v>1418500000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1403000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1408300000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1498400000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1421800000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1053300000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>652400000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>760900000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>671200000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>752200000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>759600000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>763200000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>835500000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>711000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>723700000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>720800000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>588000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>549000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>555200000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>540600000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>525100000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>619800000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>599600000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>501800000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>529000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>402300000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>391300000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>393600000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>411400000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>485600000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>483900000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>539000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>501800000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>415900000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>396400000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>418100000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>406600000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>402900000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>396600000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>3620500000</v>
+      </c>
+      <c r="C18">
         <v>3618400000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3645700000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3831800000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4099400000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4441700000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4742000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3243300000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>680900000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>761100000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>750800000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>749100000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>750000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>719300000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>656200000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>724600000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>610100000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>823000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>939800000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1019200000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1069300000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1193200000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1153500000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1209600000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>515800000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>498400000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>678200000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>707100000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>761500000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>698400000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>678100000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>742500000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>618900000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>492800000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>501700000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>555100000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>549000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>638600000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>626200000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>695000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>21000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>22000000</v>
-      </c>
-      <c r="D19">
-        <v>25000000</v>
       </c>
       <c r="E19">
         <v>25000000</v>
@@ -2452,10 +2608,10 @@
         <v>25000000</v>
       </c>
       <c r="G19">
+        <v>25000000</v>
+      </c>
+      <c r="H19">
         <v>26000000</v>
-      </c>
-      <c r="H19">
-        <v>14000000</v>
       </c>
       <c r="I19">
         <v>14000000</v>
@@ -2464,560 +2620,569 @@
         <v>14000000</v>
       </c>
       <c r="K19">
+        <v>14000000</v>
+      </c>
+      <c r="L19">
         <v>15000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>16000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>18000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM20">
         <v>23100000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>22300000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>22500000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>548700000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>568500000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>612900000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>625500000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>641900000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>628800000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>34000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>3100000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>1051900000</v>
+      </c>
+      <c r="C23">
         <v>414400000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>429100000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>426300000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>447000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>395400000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>351900000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>274500000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>375400000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>261700000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>243600000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>208100000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>351900000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>231200000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>238100000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>237900000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>248700000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>285400000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>291400000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>289800000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>289200000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>275800000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>275300000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>259700000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>202400000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>221200000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>222900000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>212500000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>217900000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>240400000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>246800000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>237200000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>235800000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>260600000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>263700000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>261800000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>265300000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>192800000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>182100000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>182800000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>4672400000</v>
+      </c>
+      <c r="C24">
         <v>4719400000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4782600000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5010400000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5309900000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5609100000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5857200000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3629700000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1095300000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1139800000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1106100000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1072400000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1101900000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1073100000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1016200000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1088500000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>858800000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1108400000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1231200000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1309000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1358500000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1469000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1428800000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1469300000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>718200000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>719600000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>901100000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>919600000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>979400000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>938800000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>924900000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>979700000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>854700000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>753400000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>765400000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>816900000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>814300000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>854499900</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>830600000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>900300000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>6195800000</v>
+      </c>
+      <c r="C25">
         <v>6137900000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6185600000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6418700000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6808300000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7030900000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6910500000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4282100000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1856200000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1811000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1858300000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1832000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1865100000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1908600000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1727200000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1812200000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1579600000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1696400000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1780200000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1864200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1899100000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1994100000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2048600000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2068900000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1220000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1248600000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1303400000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1310900000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1373000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1350200000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1410500000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1463600000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1393700000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1255200000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1181300000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1213300000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1232400000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1261100000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1233500000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1296900000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>4340600000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4333600000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4325200000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4317100000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4307500000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4297400000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>398400000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>389900000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>382900000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>376200000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>370900000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>360500000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>356700000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>352400000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>349800000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>343700000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>337900000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>336600000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>335800000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>337300000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>337100000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>336700000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>335400000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>335700000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>338800000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>351000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>353500000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>345300000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>346600000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>345600000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>318400000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>326500000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>326100000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>333000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>333700000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>328800000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>322100000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>314700000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>308600000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>500000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>500000</v>
@@ -3035,7 +3200,7 @@
         <v>500000</v>
       </c>
       <c r="H27">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="I27">
         <v>400000</v>
@@ -3133,1090 +3298,1108 @@
       <c r="AN27">
         <v>400000</v>
       </c>
+      <c r="AO27">
+        <v>400000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>4335400000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4157100000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>3985800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3773200000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3611400000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3477300000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3412600000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3327900000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3195800000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3101900000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3008200000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2926000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2810300000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2703600000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2599000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2523700000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2432500000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2295300000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2209400000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2139600000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2072000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2003000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1942900000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1912400000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1859400000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1805600000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1759900000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1721500000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1666000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1617700000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1569400000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1525700000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1465400000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1409900000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1353800000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1308000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1253000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1206300000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1163400000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>23800000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>24300000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>27200000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>38800000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>42000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>46100000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>50200000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>59500000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>66300000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>67600000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>87000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>96400000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>104600000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>115200000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>129900000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>144900000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>146400000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>163100000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>180300000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>200700000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>211300000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>221900000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>230700000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>242900000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>259300000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>291000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>304900000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>309900000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>218500000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>223900000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>227000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>102100000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>111900000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>13500000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>13700000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>7688500000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7861900000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>7832400000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7622000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7416600000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7312400000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3336300000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3228600000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3026000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2879900000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2753000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2714700000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2571000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2473000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2349500000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2229700000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2216800000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2102700000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2055900000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1947300000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1853400000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1731500000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1604100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1554400000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1545100000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1477100000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1427000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1344100000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1420800000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1396600000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1329500000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1468500000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1537700000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1624900000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1546900000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1518700000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1359600000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1280600000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1233500000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>8158200000</v>
+      </c>
+      <c r="C31">
         <v>7688500000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>7861900000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7832400000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7622000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7416600000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7312400000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3336300000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3228600000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>3026000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2879900000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2753000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2714700000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2571000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2473000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2349500000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2229700000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2216800000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2102700000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>2055900000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1947300000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1853400000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1731500000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1604100000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1554400000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1545100000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1477100000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1427000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1344100000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1420800000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1396600000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1329500000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1468500000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1537700000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1624900000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1546900000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1518700000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1359600000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1280600000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1233500000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>14354000000</v>
+      </c>
+      <c r="C32">
         <v>13826400000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>14047500000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>14251100000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>14430300000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>14447500000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>14222900000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7618400000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5084800000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>4837000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4738200000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>4585000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>4579800000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>4479600000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>4200200000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>4161700000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3809300000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>3913200000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>3882900000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>3920100000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>3846400000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3847500000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3780100000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>3673000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2774400000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2793700000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2780500000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2737900000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2717100000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2771000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2807100000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2793100000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2862200000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2792900000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2806200000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>2760200000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>2751100000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>2620700000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2514100000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2530400000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>46868000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>46862000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>46828000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>46692000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>46654000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>46605000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>37061000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>36952000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>36872000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>36857000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>36657000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>36548000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>36468000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>36376000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>36233000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>36087000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>36072000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>35909000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>35739000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>35540000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>35436000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>35332000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>35239000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>34111000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>34940000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>34619000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>34479000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>34515000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>35438000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>35385000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>35332000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>36656000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>36552000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>37557000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>37560000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>37571000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>37491000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>37416800</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>37356000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>-2155399000</v>
+      </c>
+      <c r="C34">
         <v>-2451500000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-2651500000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-2827400000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-3106301000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-3188100000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-2969300000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>799099600</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>668899900</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>525899900</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>409400100</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>287500000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>233399700</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>123300000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>205100300</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>75400200</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>150200200</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>103499800</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-24800100</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-137399900</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-228299900</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-303700100</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-377700000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-469599900</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>126299900</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>123900000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>44500000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>35099900</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-39399900</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>17900000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-35599900</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-68999900</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>40300100</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>265200000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>323699800</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>253000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>210000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>55100000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>3400100</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-61400200</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>3282500000</v>
+      </c>
+      <c r="C35">
         <v>3439100000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3666900000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>3847500000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3652700000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>3918900000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>4077900000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>30100000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>105400000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>332200000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>468600000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>618300000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>651100000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>796900000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>683600000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>750200000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>605000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>711200000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>850600000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>948500000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1002000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1113200000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>1174100000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1243400000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>519200000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>494000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>600500000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>636300000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>695500000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>641200000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>704000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>719800000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>563700000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>452000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>405800000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>486200000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>486500000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>554400000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>558000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>649700000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>3920600000</v>
+      </c>
+      <c r="C36">
         <v>3918400000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>3945700000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4131800000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>4127400000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4470700000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>4773000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>3264300000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>778500000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>786700000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>851400000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>849700000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>850600000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>925400000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>791700000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>856400000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>747500000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>837300000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>952000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1028400000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>1072900000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1195700000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>1255800000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1313100000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>617800000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>613000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>691700000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>719500000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>780600000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>712700000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>765300000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>830000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>705100000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>577800000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>509200000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>559900000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>552500000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>643100000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>628100000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>698700000</v>
       </c>
     </row>
